--- a/example.xlsx
+++ b/example.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Первый лист" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Первый лист" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,53 +423,102 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="A1" t="n">
+        <v>1</v>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>nin</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>nin</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>1.2.2024  21:31</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
+      <c r="A2" t="n">
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>list</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2024-02-01  23:18</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
+      <c r="A3" t="n">
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>lfrf</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>fasga</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2024-02-01  23:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2024-02-01  23:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2024-02-02  0:2</t>
         </is>
       </c>
     </row>
